--- a/src/ontology/Ontorat input/ontorat-FDA-EUA2.xlsx
+++ b/src/ontology/Ontorat input/ontorat-FDA-EUA2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongqunh\GitHub\cido\src\ontology\Ontorat input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588794ED-FCDA-4DF7-BA87-79905F6DE7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="597">
   <si>
     <t>FDA EUA Laboratory  (annotation property: CIDO_0000041)</t>
   </si>
@@ -1800,12 +1801,27 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CIDO_0000263</t>
+  </si>
+  <si>
+    <t>Tested viral gene</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>gen ID</t>
+  </si>
+  <si>
+    <t>OGG_3043740568</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2125,22 +2141,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D322"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,8 +2171,26 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2167,8 +2203,17 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2210,7 +2255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2238,7 +2283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2252,7 +2297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2266,7 +2311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2294,7 +2339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2308,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2336,7 +2381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2350,7 +2395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2364,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2378,7 +2423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2406,7 +2451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -2420,7 +2465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2434,7 +2479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2448,7 +2493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -2462,7 +2507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2476,7 +2521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2490,7 +2535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2504,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -2518,7 +2563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2532,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2546,7 +2591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -2560,7 +2605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2574,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2588,7 +2633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2602,7 +2647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -2616,7 +2661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -2630,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -2644,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
@@ -2658,7 +2703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -2672,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -2686,7 +2731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -2700,7 +2745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2714,7 +2759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -2728,7 +2773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -2742,7 +2787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -2756,7 +2801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -2770,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2784,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2798,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -2812,7 +2857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -2826,7 +2871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -2840,7 +2885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -2854,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -2868,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -2882,7 +2927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -2896,7 +2941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -2910,7 +2955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
@@ -2924,7 +2969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -2938,7 +2983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -2952,7 +2997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2966,7 +3011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2980,7 +3025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -2994,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
@@ -3008,7 +3053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -3022,7 +3067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>129</v>
       </c>
@@ -3036,7 +3081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
@@ -3050,7 +3095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -3064,7 +3109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
@@ -3078,7 +3123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -3092,7 +3137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>139</v>
       </c>
@@ -3106,7 +3151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>141</v>
       </c>
@@ -3120,7 +3165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -3134,7 +3179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -3148,7 +3193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -3162,7 +3207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>36</v>
       </c>
@@ -3176,7 +3221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>149</v>
       </c>
@@ -3190,7 +3235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -3204,7 +3249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
@@ -3218,7 +3263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -3232,7 +3277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -3246,7 +3291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -3260,7 +3305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3274,7 +3319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -3288,7 +3333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>66</v>
       </c>
@@ -3302,7 +3347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
@@ -3316,7 +3361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
@@ -3330,7 +3375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
@@ -3344,7 +3389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>171</v>
       </c>
@@ -3358,7 +3403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>173</v>
       </c>
@@ -3372,7 +3417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>68</v>
       </c>
@@ -3386,7 +3431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>176</v>
       </c>
@@ -3400,7 +3445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>178</v>
       </c>
@@ -3414,7 +3459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
@@ -3428,7 +3473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>182</v>
       </c>
@@ -3442,7 +3487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>184</v>
       </c>
@@ -3456,7 +3501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
@@ -3470,7 +3515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>38</v>
       </c>
@@ -3484,7 +3529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>189</v>
       </c>
@@ -3498,7 +3543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>191</v>
       </c>
@@ -3512,7 +3557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -3526,7 +3571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>192</v>
       </c>
@@ -3540,7 +3585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
@@ -3568,7 +3613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -3582,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>201</v>
       </c>
@@ -3596,7 +3641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>203</v>
       </c>
@@ -3610,7 +3655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>205</v>
       </c>
@@ -3624,7 +3669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>207</v>
       </c>
@@ -3638,7 +3683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>209</v>
       </c>
@@ -3652,7 +3697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>211</v>
       </c>
@@ -3666,7 +3711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>213</v>
       </c>
@@ -3680,7 +3725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>215</v>
       </c>
@@ -3694,7 +3739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>217</v>
       </c>
@@ -3708,7 +3753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>219</v>
       </c>
@@ -3722,7 +3767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>221</v>
       </c>
@@ -3736,7 +3781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>191</v>
       </c>
@@ -3750,7 +3795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>224</v>
       </c>
@@ -3764,7 +3809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>79</v>
       </c>
@@ -3778,7 +3823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>227</v>
       </c>
@@ -3792,7 +3837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>229</v>
       </c>
@@ -3806,7 +3851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>231</v>
       </c>
@@ -3820,7 +3865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>233</v>
       </c>
@@ -3834,7 +3879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>235</v>
       </c>
@@ -3848,7 +3893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>101</v>
       </c>
@@ -3862,7 +3907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>238</v>
       </c>
@@ -3876,7 +3921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
@@ -3890,7 +3935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3904,7 +3949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>242</v>
       </c>
@@ -3918,7 +3963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>192</v>
       </c>
@@ -3932,7 +3977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>245</v>
       </c>
@@ -3946,7 +3991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>247</v>
       </c>
@@ -3960,7 +4005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>249</v>
       </c>
@@ -3974,7 +4019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>127</v>
       </c>
@@ -3988,7 +4033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>252</v>
       </c>
@@ -4002,7 +4047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>254</v>
       </c>
@@ -4016,7 +4061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>256</v>
       </c>
@@ -4030,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>258</v>
       </c>
@@ -4044,7 +4089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>260</v>
       </c>
@@ -4058,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>262</v>
       </c>
@@ -4072,7 +4117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>262</v>
       </c>
@@ -4086,7 +4131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>265</v>
       </c>
@@ -4100,7 +4145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>195</v>
       </c>
@@ -4114,7 +4159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>268</v>
       </c>
@@ -4128,7 +4173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>270</v>
       </c>
@@ -4142,7 +4187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>272</v>
       </c>
@@ -4156,7 +4201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>274</v>
       </c>
@@ -4170,7 +4215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>276</v>
       </c>
@@ -4184,7 +4229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -4198,7 +4243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -4212,7 +4257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>280</v>
       </c>
@@ -4226,7 +4271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>282</v>
       </c>
@@ -4240,7 +4285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>284</v>
       </c>
@@ -4254,7 +4299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>286</v>
       </c>
@@ -4268,7 +4313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>288</v>
       </c>
@@ -4282,7 +4327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>290</v>
       </c>
@@ -4296,7 +4341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>292</v>
       </c>
@@ -4310,7 +4355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>131</v>
       </c>
@@ -4324,7 +4369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>260</v>
       </c>
@@ -4338,7 +4383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>296</v>
       </c>
@@ -4352,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>298</v>
       </c>
@@ -4366,7 +4411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>300</v>
       </c>
@@ -4380,7 +4425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>302</v>
       </c>
@@ -4394,7 +4439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>304</v>
       </c>
@@ -4408,7 +4453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>94</v>
       </c>
@@ -4422,7 +4467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>94</v>
       </c>
@@ -4436,7 +4481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>94</v>
       </c>
@@ -4450,7 +4495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>309</v>
       </c>
@@ -4464,7 +4509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>311</v>
       </c>
@@ -4478,7 +4523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>313</v>
       </c>
@@ -4492,7 +4537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>315</v>
       </c>
@@ -4506,7 +4551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>195</v>
       </c>
@@ -4520,7 +4565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>318</v>
       </c>
@@ -4534,7 +4579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>320</v>
       </c>
@@ -4548,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>322</v>
       </c>
@@ -4562,7 +4607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>17</v>
       </c>
@@ -4576,7 +4621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>245</v>
       </c>
@@ -4590,7 +4635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>326</v>
       </c>
@@ -4604,7 +4649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>131</v>
       </c>
@@ -4618,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>329</v>
       </c>
@@ -4632,7 +4677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>331</v>
       </c>
@@ -4646,7 +4691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>333</v>
       </c>
@@ -4660,7 +4705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>335</v>
       </c>
@@ -4674,7 +4719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>32</v>
       </c>
@@ -4688,7 +4733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>165</v>
       </c>
@@ -4702,7 +4747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>339</v>
       </c>
@@ -4716,7 +4761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>341</v>
       </c>
@@ -4730,7 +4775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>343</v>
       </c>
@@ -4744,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>345</v>
       </c>
@@ -4758,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>347</v>
       </c>
@@ -4772,7 +4817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>349</v>
       </c>
@@ -4786,7 +4831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>351</v>
       </c>
@@ -4800,7 +4845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>353</v>
       </c>
@@ -4814,7 +4859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>355</v>
       </c>
@@ -4828,7 +4873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>357</v>
       </c>
@@ -4842,7 +4887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>359</v>
       </c>
@@ -4856,7 +4901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>361</v>
       </c>
@@ -4870,7 +4915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>363</v>
       </c>
@@ -4884,7 +4929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>365</v>
       </c>
@@ -4898,7 +4943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>367</v>
       </c>
@@ -4912,7 +4957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>369</v>
       </c>
@@ -4926,7 +4971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>371</v>
       </c>
@@ -4940,7 +4985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>373</v>
       </c>
@@ -4954,7 +4999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>375</v>
       </c>
@@ -4968,7 +5013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>377</v>
       </c>
@@ -4982,7 +5027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>379</v>
       </c>
@@ -4996,7 +5041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>381</v>
       </c>
@@ -5010,7 +5055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>383</v>
       </c>
@@ -5024,7 +5069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>385</v>
       </c>
@@ -5038,7 +5083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>15</v>
       </c>
@@ -5052,7 +5097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>388</v>
       </c>
@@ -5066,7 +5111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>390</v>
       </c>
@@ -5080,7 +5125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>345</v>
       </c>
@@ -5094,7 +5139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>61</v>
       </c>
@@ -5108,7 +5153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>61</v>
       </c>
@@ -5122,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -5136,7 +5181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>396</v>
       </c>
@@ -5150,7 +5195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>398</v>
       </c>
@@ -5164,7 +5209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>400</v>
       </c>
@@ -5178,7 +5223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>402</v>
       </c>
@@ -5192,7 +5237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>404</v>
       </c>
@@ -5206,7 +5251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>406</v>
       </c>
@@ -5220,7 +5265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>105</v>
       </c>
@@ -5234,7 +5279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>409</v>
       </c>
@@ -5248,7 +5293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>411</v>
       </c>
@@ -5262,7 +5307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>413</v>
       </c>
@@ -5276,7 +5321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>415</v>
       </c>
@@ -5290,7 +5335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>417</v>
       </c>
@@ -5304,7 +5349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>419</v>
       </c>
@@ -5318,7 +5363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>421</v>
       </c>
@@ -5332,7 +5377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>423</v>
       </c>
@@ -5346,7 +5391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>425</v>
       </c>
@@ -5360,7 +5405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>427</v>
       </c>
@@ -5374,7 +5419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>215</v>
       </c>
@@ -5388,7 +5433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>430</v>
       </c>
@@ -5402,7 +5447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>432</v>
       </c>
@@ -5416,7 +5461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>434</v>
       </c>
@@ -5430,7 +5475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>436</v>
       </c>
@@ -5444,7 +5489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>438</v>
       </c>
@@ -5458,7 +5503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>440</v>
       </c>
@@ -5472,7 +5517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>442</v>
       </c>
@@ -5486,7 +5531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>444</v>
       </c>
@@ -5500,7 +5545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,7 +5559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>61</v>
       </c>
@@ -5528,7 +5573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>448</v>
       </c>
@@ -5542,7 +5587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>450</v>
       </c>
@@ -5556,7 +5601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>19</v>
       </c>
@@ -5570,7 +5615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>453</v>
       </c>
@@ -5584,7 +5629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>71</v>
       </c>
@@ -5598,7 +5643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -5612,7 +5657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>457</v>
       </c>
@@ -5626,7 +5671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>459</v>
       </c>
@@ -5640,7 +5685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>461</v>
       </c>
@@ -5654,7 +5699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>463</v>
       </c>
@@ -5668,7 +5713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>465</v>
       </c>
@@ -5682,7 +5727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>467</v>
       </c>
@@ -5696,7 +5741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>469</v>
       </c>
@@ -5710,7 +5755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>471</v>
       </c>
@@ -5724,7 +5769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>473</v>
       </c>
@@ -5738,7 +5783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>475</v>
       </c>
@@ -5752,7 +5797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>477</v>
       </c>
@@ -5766,7 +5811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>479</v>
       </c>
@@ -5780,7 +5825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>481</v>
       </c>
@@ -5794,7 +5839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>483</v>
       </c>
@@ -5808,7 +5853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>71</v>
       </c>
@@ -5822,7 +5867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>486</v>
       </c>
@@ -5836,7 +5881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>488</v>
       </c>
@@ -5850,7 +5895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>490</v>
       </c>
@@ -5864,7 +5909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>492</v>
       </c>
@@ -5878,7 +5923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>494</v>
       </c>
@@ -5892,7 +5937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>496</v>
       </c>
@@ -5906,7 +5951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>149</v>
       </c>
@@ -5920,7 +5965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>488</v>
       </c>
@@ -5934,7 +5979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>500</v>
       </c>
@@ -5948,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>129</v>
       </c>
@@ -5962,7 +6007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>503</v>
       </c>
@@ -5976,7 +6021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>53</v>
       </c>
@@ -5990,7 +6035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>506</v>
       </c>
@@ -6004,7 +6049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>508</v>
       </c>
@@ -6018,7 +6063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>510</v>
       </c>
@@ -6032,7 +6077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>79</v>
       </c>
@@ -6046,7 +6091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>513</v>
       </c>
@@ -6060,7 +6105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>515</v>
       </c>
@@ -6074,7 +6119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>517</v>
       </c>
@@ -6088,7 +6133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>519</v>
       </c>
@@ -6102,7 +6147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>521</v>
       </c>
@@ -6116,7 +6161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>523</v>
       </c>
@@ -6130,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>525</v>
       </c>
@@ -6144,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>527</v>
       </c>
@@ -6158,7 +6203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>529</v>
       </c>
@@ -6172,7 +6217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>68</v>
       </c>
@@ -6186,7 +6231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>532</v>
       </c>
@@ -6200,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>534</v>
       </c>
@@ -6214,7 +6259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>536</v>
       </c>
@@ -6228,7 +6273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>538</v>
       </c>
@@ -6242,7 +6287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>540</v>
       </c>
@@ -6256,7 +6301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>139</v>
       </c>
@@ -6270,7 +6315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>543</v>
       </c>
@@ -6284,7 +6329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>483</v>
       </c>
@@ -6298,7 +6343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>77</v>
       </c>
@@ -6312,7 +6357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>547</v>
       </c>
@@ -6326,7 +6371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>549</v>
       </c>
@@ -6340,7 +6385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>551</v>
       </c>
@@ -6354,7 +6399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>90</v>
       </c>
@@ -6368,7 +6413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>304</v>
       </c>
@@ -6382,7 +6427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>21</v>
       </c>
@@ -6396,7 +6441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>556</v>
       </c>
@@ -6410,7 +6455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>558</v>
       </c>
@@ -6424,7 +6469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>560</v>
       </c>
@@ -6438,7 +6483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>562</v>
       </c>
@@ -6452,7 +6497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>564</v>
       </c>
@@ -6466,7 +6511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>53</v>
       </c>
@@ -6480,7 +6525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>567</v>
       </c>
@@ -6494,7 +6539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>569</v>
       </c>
@@ -6508,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>571</v>
       </c>
@@ -6522,7 +6567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>573</v>
       </c>
@@ -6536,7 +6581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>94</v>
       </c>
@@ -6550,7 +6595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>71</v>
       </c>
@@ -6564,7 +6609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>577</v>
       </c>
@@ -6578,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>579</v>
       </c>
@@ -6592,7 +6637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>581</v>
       </c>
@@ -6606,7 +6651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>583</v>
       </c>
@@ -6620,7 +6665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>585</v>
       </c>
@@ -6634,7 +6679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>587</v>
       </c>
@@ -6650,20 +6695,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C33" r:id="rId2" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C51" r:id="rId3" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C55" r:id="rId4" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C56" r:id="rId5" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C70" r:id="rId6" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C74" r:id="rId7" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C109" r:id="rId8" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C141" r:id="rId9" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C187" r:id="rId10" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C218" r:id="rId11" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C264" r:id="rId12" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C265" r:id="rId13" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
-    <hyperlink ref="C308" r:id="rId14" display="http://purl.obolibrary.org/obo/CIDO_0000035"/>
+    <hyperlink ref="C30" r:id="rId1" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C33" r:id="rId2" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C51" r:id="rId3" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C55" r:id="rId4" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C56" r:id="rId5" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C70" r:id="rId6" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C74" r:id="rId7" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C109" r:id="rId8" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C141" r:id="rId9" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C187" r:id="rId10" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C218" r:id="rId11" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C264" r:id="rId12" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C265" r:id="rId13" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C308" r:id="rId14" display="http://purl.obolibrary.org/obo/CIDO_0000035" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
